--- a/Input/Moth_count_data_2024.xlsx
+++ b/Input/Moth_count_data_2024.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noa/Documents/Documents - MacBook Air/PhD/R:Stats:GIS/RStudio/R_Workspace/Pheromone_trap_code/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C12BA1-2B75-3E42-B099-8BFF234598A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6798E9-36FF-C748-83E3-FD1B1B5939E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="28500" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Moth_count_data_2024" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1447,6 +1460,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1467,7 +1481,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,6 +1492,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1596,7 +1616,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1637,6 +1657,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2772,8 +2795,8 @@
   <dimension ref="A1:O317"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168:B317"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10376,7 +10399,7 @@
       <c r="D162" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E162" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F162" s="7" t="s">
@@ -17285,8 +17308,8 @@
       <c r="D309" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E309" s="7" t="s">
-        <v>17</v>
+      <c r="E309" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F309" s="7" t="s">
         <v>229</v>
@@ -17473,7 +17496,7 @@
       <c r="D313" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E313" s="7" t="s">
+      <c r="E313" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F313" s="7" t="s">

--- a/Input/Moth_count_data_2024.xlsx
+++ b/Input/Moth_count_data_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noa/Documents/Documents - MacBook Air/PhD/R:Stats:GIS/RStudio/R_Workspace/Pheromone_trap_code/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6798E9-36FF-C748-83E3-FD1B1B5939E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65599E1-9772-CC4B-A880-12C3BC21D7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="28500" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet 1 - Moth_count_data_2024" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="470">
   <si>
     <t>date</t>
   </si>
@@ -2795,8 +2796,8 @@
   <dimension ref="A1:O317"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E313" sqref="E313"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K253" sqref="K253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14694,8 +14695,8 @@
       <c r="J253" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K253" s="10" t="s">
-        <v>19</v>
+      <c r="K253" s="10">
+        <v>3</v>
       </c>
       <c r="L253" s="7" t="s">
         <v>19</v>
